--- a/dataanalysis/data/predictions/1600/08151503_1505.xlsx
+++ b/dataanalysis/data/predictions/1600/08151503_1505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="197">
   <si>
     <t>序号</t>
   </si>
@@ -121,6 +121,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-15</t>
   </si>
   <si>
@@ -602,12 +605,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -965,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI106"/>
+  <dimension ref="A1:AJ106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,19 +1074,22 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>300145</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>8.76</v>
@@ -1107,7 +1107,7 @@
         <v>208512.63</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -1148,8 +1148,23 @@
       <c r="X2">
         <v>0.02</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>5.84</v>
+      </c>
+      <c r="AA2">
+        <v>6.96</v>
+      </c>
       <c r="AD2" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1157,22 +1172,25 @@
       <c r="AH2">
         <v>3.852072238922119</v>
       </c>
-      <c r="AI2" t="s">
-        <v>196</v>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>300158</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0.83</v>
@@ -1190,7 +1208,7 @@
         <v>101284.68</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K3">
         <v>18</v>
@@ -1231,8 +1249,23 @@
       <c r="X3">
         <v>-0.73</v>
       </c>
+      <c r="Y3">
+        <v>0.7</v>
+      </c>
+      <c r="Z3">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>1.17</v>
+      </c>
       <c r="AD3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1240,22 +1273,25 @@
       <c r="AH3">
         <v>2.709044218063354</v>
       </c>
-      <c r="AI3" t="s">
-        <v>196</v>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>300188</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>-1.21</v>
@@ -1273,7 +1309,7 @@
         <v>256619.93</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1314,8 +1350,23 @@
       <c r="X4">
         <v>-2.07</v>
       </c>
+      <c r="Y4">
+        <v>-0.27</v>
+      </c>
+      <c r="Z4">
+        <v>19.75</v>
+      </c>
+      <c r="AA4">
+        <v>4.77</v>
+      </c>
       <c r="AD4" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1323,22 +1374,25 @@
       <c r="AH4">
         <v>3.466999292373657</v>
       </c>
-      <c r="AI4" t="s">
-        <v>196</v>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>300196</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>7.87</v>
@@ -1356,7 +1410,7 @@
         <v>61793.54</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1397,8 +1451,23 @@
       <c r="X5">
         <v>0.4</v>
       </c>
+      <c r="Y5">
+        <v>3.68</v>
+      </c>
+      <c r="Z5">
+        <v>17.55</v>
+      </c>
+      <c r="AA5">
+        <v>5.79</v>
+      </c>
       <c r="AD5" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1406,22 +1475,25 @@
       <c r="AH5">
         <v>3.231415033340454</v>
       </c>
-      <c r="AI5" t="s">
-        <v>196</v>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>300199</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>5.08</v>
@@ -1439,7 +1511,7 @@
         <v>378360.32</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1480,8 +1552,23 @@
       <c r="X6">
         <v>0.26</v>
       </c>
+      <c r="Y6">
+        <v>14.77</v>
+      </c>
+      <c r="Z6">
+        <v>30.47</v>
+      </c>
+      <c r="AA6">
+        <v>16.92</v>
+      </c>
       <c r="AD6" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1489,22 +1576,25 @@
       <c r="AH6">
         <v>1.764580726623535</v>
       </c>
-      <c r="AI6" t="s">
-        <v>196</v>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>300213</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>2.44</v>
@@ -1522,7 +1612,7 @@
         <v>70999.14</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1563,8 +1653,23 @@
       <c r="X7">
         <v>0.26</v>
       </c>
+      <c r="Y7">
+        <v>-0.73</v>
+      </c>
+      <c r="Z7">
+        <v>11.31</v>
+      </c>
+      <c r="AA7">
+        <v>3.67</v>
+      </c>
       <c r="AD7" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1572,22 +1677,25 @@
       <c r="AH7">
         <v>3.21699595451355</v>
       </c>
-      <c r="AI7" t="s">
-        <v>196</v>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>300214</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>-0.9399999999999999</v>
@@ -1605,7 +1713,7 @@
         <v>54890.89</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1646,8 +1754,23 @@
       <c r="X8">
         <v>-0.16</v>
       </c>
+      <c r="Y8">
+        <v>1.78</v>
+      </c>
+      <c r="Z8">
+        <v>8.98</v>
+      </c>
+      <c r="AA8">
+        <v>6.52</v>
+      </c>
       <c r="AD8" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1655,22 +1778,25 @@
       <c r="AH8">
         <v>1.967033982276917</v>
       </c>
-      <c r="AI8" t="s">
-        <v>196</v>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>300224</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>4.55</v>
@@ -1688,7 +1814,7 @@
         <v>175984.81</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1729,8 +1855,23 @@
       <c r="X9">
         <v>0.77</v>
       </c>
+      <c r="Y9">
+        <v>4.41</v>
+      </c>
+      <c r="Z9">
+        <v>19.5</v>
+      </c>
+      <c r="AA9">
+        <v>6.15</v>
+      </c>
       <c r="AD9" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1738,22 +1879,25 @@
       <c r="AH9">
         <v>1.960644602775574</v>
       </c>
-      <c r="AI9" t="s">
-        <v>196</v>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>300300</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>17.37</v>
@@ -1771,7 +1915,7 @@
         <v>76962.11</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1812,8 +1956,23 @@
       <c r="X10">
         <v>0.77</v>
       </c>
+      <c r="Y10">
+        <v>-2.96</v>
+      </c>
+      <c r="Z10">
+        <v>6.13</v>
+      </c>
+      <c r="AA10">
+        <v>0.82</v>
+      </c>
       <c r="AD10" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -1821,22 +1980,25 @@
       <c r="AH10">
         <v>8.614686965942383</v>
       </c>
-      <c r="AI10" t="s">
-        <v>197</v>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>300304</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>2.28</v>
@@ -1854,7 +2016,7 @@
         <v>61740.58</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1895,8 +2057,23 @@
       <c r="X11">
         <v>-0.2</v>
       </c>
+      <c r="Y11">
+        <v>-2.54</v>
+      </c>
+      <c r="Z11">
+        <v>13.29</v>
+      </c>
+      <c r="AA11">
+        <v>2.31</v>
+      </c>
       <c r="AD11" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1904,22 +2081,25 @@
       <c r="AH11">
         <v>2.195149183273315</v>
       </c>
-      <c r="AI11" t="s">
-        <v>196</v>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>300322</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0.15</v>
@@ -1937,7 +2117,7 @@
         <v>280553.83</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12">
         <v>15</v>
@@ -1978,8 +2158,23 @@
       <c r="X12">
         <v>-2.18</v>
       </c>
+      <c r="Y12">
+        <v>4.63</v>
+      </c>
+      <c r="Z12">
+        <v>29.39</v>
+      </c>
+      <c r="AA12">
+        <v>7.93</v>
+      </c>
       <c r="AD12" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -1987,22 +2182,25 @@
       <c r="AH12">
         <v>-2.66205096244812</v>
       </c>
-      <c r="AI12" t="s">
-        <v>196</v>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:36">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>300368</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>9.65</v>
@@ -2020,7 +2218,7 @@
         <v>243977.4</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -2061,8 +2259,23 @@
       <c r="X13">
         <v>1.26</v>
       </c>
+      <c r="Y13">
+        <v>0.36</v>
+      </c>
+      <c r="Z13">
+        <v>18.38</v>
+      </c>
+      <c r="AA13">
+        <v>10.06</v>
+      </c>
       <c r="AD13" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2070,22 +2283,25 @@
       <c r="AH13">
         <v>4.710075855255127</v>
       </c>
-      <c r="AI13" t="s">
-        <v>196</v>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>300398</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>5.06</v>
@@ -2103,7 +2319,7 @@
         <v>190894.37</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2144,8 +2360,23 @@
       <c r="X14">
         <v>0.38</v>
       </c>
+      <c r="Y14">
+        <v>5.07</v>
+      </c>
+      <c r="Z14">
+        <v>25.67</v>
+      </c>
+      <c r="AA14">
+        <v>8.359999999999999</v>
+      </c>
       <c r="AD14" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2153,22 +2384,25 @@
       <c r="AH14">
         <v>-3.263551950454712</v>
       </c>
-      <c r="AI14" t="s">
-        <v>196</v>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>300400</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>8.460000000000001</v>
@@ -2186,7 +2420,7 @@
         <v>129402.07</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2227,8 +2461,23 @@
       <c r="X15">
         <v>-0.21</v>
       </c>
+      <c r="Y15">
+        <v>-1.64</v>
+      </c>
+      <c r="Z15">
+        <v>28.17</v>
+      </c>
+      <c r="AA15">
+        <v>4.68</v>
+      </c>
       <c r="AD15" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2236,22 +2485,25 @@
       <c r="AH15">
         <v>-1.022182941436768</v>
       </c>
-      <c r="AI15" t="s">
-        <v>196</v>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>300430</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>1.03</v>
@@ -2269,7 +2521,7 @@
         <v>105002.86</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2310,8 +2562,23 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Y16">
+        <v>-1.59</v>
+      </c>
+      <c r="Z16">
+        <v>24.7</v>
+      </c>
+      <c r="AA16">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="AD16" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2319,22 +2586,25 @@
       <c r="AH16">
         <v>2.621639013290405</v>
       </c>
-      <c r="AI16" t="s">
-        <v>196</v>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>300436</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>14.87</v>
@@ -2352,7 +2622,7 @@
         <v>266420.56</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>32</v>
@@ -2393,8 +2663,23 @@
       <c r="X17">
         <v>-0.3</v>
       </c>
+      <c r="Y17">
+        <v>2.98</v>
+      </c>
+      <c r="Z17">
+        <v>175.49</v>
+      </c>
+      <c r="AA17">
+        <v>4.93</v>
+      </c>
       <c r="AD17" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2402,22 +2687,25 @@
       <c r="AH17">
         <v>-22.87513160705566</v>
       </c>
-      <c r="AI17" t="s">
-        <v>196</v>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>300486</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>7.47</v>
@@ -2435,7 +2723,7 @@
         <v>111033.93</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2476,8 +2764,23 @@
       <c r="X18">
         <v>0.33</v>
       </c>
+      <c r="Y18">
+        <v>16.39</v>
+      </c>
+      <c r="Z18">
+        <v>22.85</v>
+      </c>
+      <c r="AA18">
+        <v>18.52</v>
+      </c>
       <c r="AD18" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -2485,22 +2788,25 @@
       <c r="AH18">
         <v>6.254998683929443</v>
       </c>
-      <c r="AI18" t="s">
-        <v>196</v>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>300499</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>6.93</v>
@@ -2518,7 +2824,7 @@
         <v>240252.08</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2559,8 +2865,23 @@
       <c r="X19">
         <v>0.73</v>
       </c>
+      <c r="Y19">
+        <v>20.02</v>
+      </c>
+      <c r="Z19">
+        <v>30.94</v>
+      </c>
+      <c r="AA19">
+        <v>20.02</v>
+      </c>
       <c r="AD19" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2568,22 +2889,25 @@
       <c r="AH19">
         <v>-11.03332901000977</v>
       </c>
-      <c r="AI19" t="s">
-        <v>196</v>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>20.02</v>
@@ -2601,7 +2925,7 @@
         <v>111158.86</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2642,8 +2966,23 @@
       <c r="X20">
         <v>0.83</v>
       </c>
+      <c r="Y20">
+        <v>8.34</v>
+      </c>
+      <c r="Z20">
+        <v>34.79</v>
+      </c>
+      <c r="AA20">
+        <v>14.22</v>
+      </c>
       <c r="AD20" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>1</v>
@@ -2651,22 +2990,25 @@
       <c r="AH20">
         <v>13.59975242614746</v>
       </c>
-      <c r="AI20" t="s">
-        <v>196</v>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>300547</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -2684,7 +3026,7 @@
         <v>188735.13</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2725,8 +3067,23 @@
       <c r="X21">
         <v>2.83</v>
       </c>
+      <c r="Y21">
+        <v>8.91</v>
+      </c>
+      <c r="Z21">
+        <v>56.3</v>
+      </c>
+      <c r="AA21">
+        <v>16.13</v>
+      </c>
       <c r="AD21" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -2734,22 +3091,25 @@
       <c r="AH21">
         <v>4.110918521881104</v>
       </c>
-      <c r="AI21" t="s">
-        <v>196</v>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>300579</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0.83</v>
@@ -2767,7 +3127,7 @@
         <v>111034.83</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2808,8 +3168,23 @@
       <c r="X22">
         <v>-0.24</v>
       </c>
+      <c r="Y22">
+        <v>1.39</v>
+      </c>
+      <c r="Z22">
+        <v>41.4</v>
+      </c>
+      <c r="AA22">
+        <v>2.99</v>
+      </c>
       <c r="AD22" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -2817,22 +3192,25 @@
       <c r="AH22">
         <v>1.328459978103638</v>
       </c>
-      <c r="AI22" t="s">
-        <v>196</v>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>300584</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>12.44</v>
@@ -2850,7 +3228,7 @@
         <v>121707.84</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2891,8 +3269,23 @@
       <c r="X23">
         <v>-0.1</v>
       </c>
+      <c r="Y23">
+        <v>-1.09</v>
+      </c>
+      <c r="Z23">
+        <v>61.38</v>
+      </c>
+      <c r="AA23">
+        <v>2.9</v>
+      </c>
       <c r="AD23" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -2900,22 +3293,25 @@
       <c r="AH23">
         <v>6.780285358428955</v>
       </c>
-      <c r="AI23" t="s">
-        <v>196</v>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>300593</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>13.34</v>
@@ -2933,7 +3329,7 @@
         <v>92802.58</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2974,8 +3370,23 @@
       <c r="X24">
         <v>0.25</v>
       </c>
+      <c r="Y24">
+        <v>0.5</v>
+      </c>
+      <c r="Z24">
+        <v>21.27</v>
+      </c>
+      <c r="AA24">
+        <v>6.99</v>
+      </c>
       <c r="AD24" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -2983,22 +3394,25 @@
       <c r="AH24">
         <v>5.64982795715332</v>
       </c>
-      <c r="AI24" t="s">
-        <v>196</v>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>300600</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>1.26</v>
@@ -3016,7 +3430,7 @@
         <v>75412.77</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25">
         <v>13</v>
@@ -3057,8 +3471,23 @@
       <c r="X25">
         <v>0.45</v>
       </c>
+      <c r="Y25">
+        <v>6.33</v>
+      </c>
+      <c r="Z25">
+        <v>23.38</v>
+      </c>
+      <c r="AA25">
+        <v>8.09</v>
+      </c>
       <c r="AD25" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -3066,22 +3495,25 @@
       <c r="AH25">
         <v>3.262555122375488</v>
       </c>
-      <c r="AI25" t="s">
-        <v>196</v>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>300609</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>3.59</v>
@@ -3099,7 +3531,7 @@
         <v>82392.28</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -3140,8 +3572,23 @@
       <c r="X26">
         <v>0.4</v>
       </c>
+      <c r="Y26">
+        <v>13.41</v>
+      </c>
+      <c r="Z26">
+        <v>63.3</v>
+      </c>
+      <c r="AA26">
+        <v>19.89</v>
+      </c>
       <c r="AD26" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -3149,22 +3596,25 @@
       <c r="AH26">
         <v>-1.189934253692627</v>
       </c>
-      <c r="AI26" t="s">
-        <v>196</v>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>300620</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>2.44</v>
@@ -3182,7 +3632,7 @@
         <v>350922.11</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3223,8 +3673,23 @@
       <c r="X27">
         <v>-0.55</v>
       </c>
+      <c r="Y27">
+        <v>18.29</v>
+      </c>
+      <c r="Z27">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>20</v>
+      </c>
       <c r="AD27" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3232,22 +3697,25 @@
       <c r="AH27">
         <v>6.870548725128174</v>
       </c>
-      <c r="AI27" t="s">
-        <v>196</v>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>300637</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>6.42</v>
@@ -3265,7 +3733,7 @@
         <v>85656.53</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3306,8 +3774,23 @@
       <c r="X28">
         <v>1.87</v>
       </c>
+      <c r="Y28">
+        <v>6.23</v>
+      </c>
+      <c r="Z28">
+        <v>18.18</v>
+      </c>
+      <c r="AA28">
+        <v>15.5</v>
+      </c>
       <c r="AD28" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>1</v>
@@ -3315,22 +3798,25 @@
       <c r="AH28">
         <v>3.772766351699829</v>
       </c>
-      <c r="AI28" t="s">
-        <v>197</v>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>300648</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>-0.5</v>
@@ -3348,7 +3834,7 @@
         <v>44824.44</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K29">
         <v>12</v>
@@ -3389,8 +3875,23 @@
       <c r="X29">
         <v>-0.57</v>
       </c>
+      <c r="Y29">
+        <v>2.11</v>
+      </c>
+      <c r="Z29">
+        <v>59.8</v>
+      </c>
+      <c r="AA29">
+        <v>3.51</v>
+      </c>
       <c r="AD29" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3398,22 +3899,25 @@
       <c r="AH29">
         <v>2.04153037071228</v>
       </c>
-      <c r="AI29" t="s">
-        <v>196</v>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>300671</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>1.01</v>
@@ -3431,7 +3935,7 @@
         <v>80754.57000000001</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3472,8 +3976,23 @@
       <c r="X30">
         <v>-0.16</v>
       </c>
+      <c r="Y30">
+        <v>1.02</v>
+      </c>
+      <c r="Z30">
+        <v>42.2</v>
+      </c>
+      <c r="AA30">
+        <v>2.85</v>
+      </c>
       <c r="AD30" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3481,22 +4000,25 @@
       <c r="AH30">
         <v>3.012284994125366</v>
       </c>
-      <c r="AI30" t="s">
-        <v>196</v>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>300683</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>6.67</v>
@@ -3514,7 +4036,7 @@
         <v>64595.55</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K31">
         <v>20</v>
@@ -3555,8 +4077,23 @@
       <c r="X31">
         <v>0.28</v>
       </c>
+      <c r="Y31">
+        <v>2.87</v>
+      </c>
+      <c r="Z31">
+        <v>59</v>
+      </c>
+      <c r="AA31">
+        <v>6.59</v>
+      </c>
       <c r="AD31" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -3564,22 +4101,25 @@
       <c r="AH31">
         <v>1.061265587806702</v>
       </c>
-      <c r="AI31" t="s">
-        <v>196</v>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>300684</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>7.03</v>
@@ -3597,7 +4137,7 @@
         <v>139872.97</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -3638,8 +4178,23 @@
       <c r="X32">
         <v>1.5</v>
       </c>
+      <c r="Y32">
+        <v>8.74</v>
+      </c>
+      <c r="Z32">
+        <v>38.38</v>
+      </c>
+      <c r="AA32">
+        <v>12.52</v>
+      </c>
       <c r="AD32" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -3647,22 +4202,25 @@
       <c r="AH32">
         <v>5.227943897247314</v>
       </c>
-      <c r="AI32" t="s">
-        <v>196</v>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>300690</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33">
         <v>15.39</v>
@@ -3680,7 +4238,7 @@
         <v>167155.55</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3721,8 +4279,23 @@
       <c r="X33">
         <v>0.58</v>
       </c>
+      <c r="Y33">
+        <v>6.98</v>
+      </c>
+      <c r="Z33">
+        <v>44.08</v>
+      </c>
+      <c r="AA33">
+        <v>13.96</v>
+      </c>
       <c r="AD33" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
       </c>
       <c r="AG33">
         <v>1</v>
@@ -3730,22 +4303,25 @@
       <c r="AH33">
         <v>1.494160294532776</v>
       </c>
-      <c r="AI33" t="s">
-        <v>196</v>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>300703</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>-3.44</v>
@@ -3763,7 +4339,7 @@
         <v>66108.75999999999</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3804,8 +4380,23 @@
       <c r="X34">
         <v>-0.15</v>
       </c>
+      <c r="Y34">
+        <v>-1.08</v>
+      </c>
+      <c r="Z34">
+        <v>35.1</v>
+      </c>
+      <c r="AA34">
+        <v>2.63</v>
+      </c>
       <c r="AD34" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -3813,22 +4404,25 @@
       <c r="AH34">
         <v>2.368683576583862</v>
       </c>
-      <c r="AI34" t="s">
-        <v>196</v>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>300706</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>5.77</v>
@@ -3846,7 +4440,7 @@
         <v>126883.76</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>16</v>
@@ -3887,8 +4481,23 @@
       <c r="X35">
         <v>0.5600000000000001</v>
       </c>
+      <c r="Y35">
+        <v>6.77</v>
+      </c>
+      <c r="Z35">
+        <v>52</v>
+      </c>
+      <c r="AA35">
+        <v>7.02</v>
+      </c>
       <c r="AD35" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -3896,22 +4505,25 @@
       <c r="AH35">
         <v>5.277352333068848</v>
       </c>
-      <c r="AI35" t="s">
-        <v>196</v>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>300724</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36">
         <v>10.86</v>
@@ -3929,7 +4541,7 @@
         <v>291882.88</v>
       </c>
       <c r="J36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3970,8 +4582,23 @@
       <c r="X36">
         <v>0.15</v>
       </c>
+      <c r="Y36">
+        <v>-0.09</v>
+      </c>
+      <c r="Z36">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="AA36">
+        <v>2.13</v>
+      </c>
       <c r="AD36" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -3979,22 +4606,25 @@
       <c r="AH36">
         <v>6.156012058258057</v>
       </c>
-      <c r="AI36" t="s">
-        <v>196</v>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:36">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>300727</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37">
         <v>11.91</v>
@@ -4012,7 +4642,7 @@
         <v>76950.5</v>
       </c>
       <c r="J37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4053,8 +4683,23 @@
       <c r="X37">
         <v>0</v>
       </c>
+      <c r="Y37">
+        <v>19.99</v>
+      </c>
+      <c r="Z37">
+        <v>43.64</v>
+      </c>
+      <c r="AA37">
+        <v>19.99</v>
+      </c>
       <c r="AD37" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4062,22 +4707,25 @@
       <c r="AH37">
         <v>9.490230560302734</v>
       </c>
-      <c r="AI37" t="s">
-        <v>196</v>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:36">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>300731</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38">
         <v>6.33</v>
@@ -4095,7 +4743,7 @@
         <v>148279.48</v>
       </c>
       <c r="J38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K38">
         <v>11</v>
@@ -4136,8 +4784,23 @@
       <c r="X38">
         <v>-1.06</v>
       </c>
+      <c r="Y38">
+        <v>15.06</v>
+      </c>
+      <c r="Z38">
+        <v>61.5</v>
+      </c>
+      <c r="AA38">
+        <v>18.93</v>
+      </c>
       <c r="AD38" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -4145,22 +4808,25 @@
       <c r="AH38">
         <v>-4.2332763671875</v>
       </c>
-      <c r="AI38" t="s">
-        <v>196</v>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:36">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>300753</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>-2.12</v>
@@ -4178,7 +4844,7 @@
         <v>71229.99000000001</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4219,8 +4885,23 @@
       <c r="X39">
         <v>-2.34</v>
       </c>
+      <c r="Y39">
+        <v>-1.84</v>
+      </c>
+      <c r="Z39">
+        <v>36.12</v>
+      </c>
+      <c r="AA39">
+        <v>0.53</v>
+      </c>
       <c r="AD39" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
       </c>
       <c r="AG39">
         <v>0</v>
@@ -4228,22 +4909,25 @@
       <c r="AH39">
         <v>5.491449356079102</v>
       </c>
-      <c r="AI39" t="s">
-        <v>196</v>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:36">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>300803</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40">
         <v>20</v>
@@ -4261,7 +4945,7 @@
         <v>1069023.74</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4302,8 +4986,23 @@
       <c r="X40">
         <v>2.29</v>
       </c>
+      <c r="Y40">
+        <v>14.64</v>
+      </c>
+      <c r="Z40">
+        <v>131.84</v>
+      </c>
+      <c r="AA40">
+        <v>20</v>
+      </c>
       <c r="AD40" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
       </c>
       <c r="AG40">
         <v>1</v>
@@ -4311,22 +5010,25 @@
       <c r="AH40">
         <v>16.30659866333008</v>
       </c>
-      <c r="AI40" t="s">
-        <v>197</v>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:36">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>300806</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <v>3.07</v>
@@ -4344,7 +5046,7 @@
         <v>50679.47</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4385,8 +5087,23 @@
       <c r="X41">
         <v>-0.03</v>
       </c>
+      <c r="Y41">
+        <v>9.93</v>
+      </c>
+      <c r="Z41">
+        <v>25</v>
+      </c>
+      <c r="AA41">
+        <v>14.42</v>
+      </c>
       <c r="AD41" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
       </c>
       <c r="AG41">
         <v>0</v>
@@ -4394,22 +5111,25 @@
       <c r="AH41">
         <v>3.599819183349609</v>
       </c>
-      <c r="AI41" t="s">
-        <v>196</v>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:36">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>300815</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42">
         <v>2.21</v>
@@ -4427,7 +5147,7 @@
         <v>150604.72</v>
       </c>
       <c r="J42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4468,8 +5188,23 @@
       <c r="X42">
         <v>0.05</v>
       </c>
+      <c r="Y42">
+        <v>1.64</v>
+      </c>
+      <c r="Z42">
+        <v>32.94</v>
+      </c>
+      <c r="AA42">
+        <v>8.07</v>
+      </c>
       <c r="AD42" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -4477,22 +5212,25 @@
       <c r="AH42">
         <v>0.3700243532657623</v>
       </c>
-      <c r="AI42" t="s">
-        <v>196</v>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:36">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>300816</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4510,7 +5248,7 @@
         <v>30250.51</v>
       </c>
       <c r="J43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4551,8 +5289,23 @@
       <c r="X43">
         <v>-0.4</v>
       </c>
+      <c r="Y43">
+        <v>-0.7</v>
+      </c>
+      <c r="Z43">
+        <v>44.44</v>
+      </c>
+      <c r="AA43">
+        <v>4.32</v>
+      </c>
       <c r="AD43" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -4560,22 +5313,25 @@
       <c r="AH43">
         <v>-5.214454650878906</v>
       </c>
-      <c r="AI43" t="s">
-        <v>196</v>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:36">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>300843</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E44">
         <v>11.35</v>
@@ -4593,7 +5349,7 @@
         <v>119048.47</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4634,8 +5390,23 @@
       <c r="X44">
         <v>1.08</v>
       </c>
+      <c r="Y44">
+        <v>15.76</v>
+      </c>
+      <c r="Z44">
+        <v>52.6</v>
+      </c>
+      <c r="AA44">
+        <v>17.1</v>
+      </c>
       <c r="AD44" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -4643,22 +5414,25 @@
       <c r="AH44">
         <v>4.765690326690674</v>
       </c>
-      <c r="AI44" t="s">
-        <v>196</v>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:36">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>300870</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>19.34</v>
@@ -4676,7 +5450,7 @@
         <v>280141.13</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4717,8 +5491,23 @@
       <c r="X45">
         <v>-0.72</v>
       </c>
+      <c r="Y45">
+        <v>0.2</v>
+      </c>
+      <c r="Z45">
+        <v>270</v>
+      </c>
+      <c r="AA45">
+        <v>8.65</v>
+      </c>
       <c r="AD45" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>1</v>
@@ -4726,22 +5515,25 @@
       <c r="AH45">
         <v>16.39732360839844</v>
       </c>
-      <c r="AI45" t="s">
-        <v>196</v>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:36">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>300885</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <v>4.46</v>
@@ -4759,7 +5551,7 @@
         <v>63143.42</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K46">
         <v>18</v>
@@ -4800,8 +5592,23 @@
       <c r="X46">
         <v>0.51</v>
       </c>
+      <c r="Y46">
+        <v>-3.54</v>
+      </c>
+      <c r="Z46">
+        <v>29.4</v>
+      </c>
+      <c r="AA46">
+        <v>2.08</v>
+      </c>
       <c r="AD46" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
       </c>
       <c r="AG46">
         <v>0</v>
@@ -4809,22 +5616,25 @@
       <c r="AH46">
         <v>4.277958393096924</v>
       </c>
-      <c r="AI46" t="s">
-        <v>196</v>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:36">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>300902</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47">
         <v>8.68</v>
@@ -4842,7 +5652,7 @@
         <v>51900.65</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4883,8 +5693,23 @@
       <c r="X47">
         <v>0.45</v>
       </c>
+      <c r="Y47">
+        <v>1.51</v>
+      </c>
+      <c r="Z47">
+        <v>30.87</v>
+      </c>
+      <c r="AA47">
+        <v>5.86</v>
+      </c>
       <c r="AD47" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -4892,22 +5717,25 @@
       <c r="AH47">
         <v>5.224047183990479</v>
       </c>
-      <c r="AI47" t="s">
-        <v>196</v>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:36">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>300907</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E48">
         <v>6.82</v>
@@ -4925,7 +5753,7 @@
         <v>56376.89</v>
       </c>
       <c r="J48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4966,8 +5794,23 @@
       <c r="X48">
         <v>-0.06</v>
       </c>
+      <c r="Y48">
+        <v>-2.15</v>
+      </c>
+      <c r="Z48">
+        <v>38.73</v>
+      </c>
+      <c r="AA48">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="AD48" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
       </c>
       <c r="AG48">
         <v>0</v>
@@ -4975,22 +5818,25 @@
       <c r="AH48">
         <v>2.727936744689941</v>
       </c>
-      <c r="AI48" t="s">
-        <v>196</v>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:36">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>300969</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49">
         <v>6.5</v>
@@ -5008,7 +5854,7 @@
         <v>41951.82</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -5049,8 +5895,23 @@
       <c r="X49">
         <v>0.21</v>
       </c>
+      <c r="Y49">
+        <v>0.54</v>
+      </c>
+      <c r="Z49">
+        <v>93.98999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>2.26</v>
+      </c>
       <c r="AD49" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
       </c>
       <c r="AG49">
         <v>0</v>
@@ -5058,22 +5919,25 @@
       <c r="AH49">
         <v>3.47270655632019</v>
       </c>
-      <c r="AI49" t="s">
-        <v>196</v>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:36">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>300993</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50">
         <v>0.49</v>
@@ -5091,7 +5955,7 @@
         <v>50385.82</v>
       </c>
       <c r="J50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K50">
         <v>8</v>
@@ -5132,8 +5996,23 @@
       <c r="X50">
         <v>-0.43</v>
       </c>
+      <c r="Y50">
+        <v>-2.01</v>
+      </c>
+      <c r="Z50">
+        <v>18.75</v>
+      </c>
+      <c r="AA50">
+        <v>1.96</v>
+      </c>
       <c r="AD50" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -5141,22 +6020,25 @@
       <c r="AH50">
         <v>1.093947768211365</v>
       </c>
-      <c r="AI50" t="s">
-        <v>196</v>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:36">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>301005</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51">
         <v>5.04</v>
@@ -5174,7 +6056,7 @@
         <v>135257.24</v>
       </c>
       <c r="J51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -5215,8 +6097,23 @@
       <c r="X51">
         <v>0.41</v>
       </c>
+      <c r="Y51">
+        <v>-2.01</v>
+      </c>
+      <c r="Z51">
+        <v>54.36</v>
+      </c>
+      <c r="AA51">
+        <v>0.31</v>
+      </c>
       <c r="AD51" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -5224,22 +6121,25 @@
       <c r="AH51">
         <v>3.685043096542358</v>
       </c>
-      <c r="AI51" t="s">
-        <v>196</v>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:36">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>301007</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52">
         <v>-0.14</v>
@@ -5257,7 +6157,7 @@
         <v>39784.54</v>
       </c>
       <c r="J52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5298,8 +6198,23 @@
       <c r="X52">
         <v>0.5600000000000001</v>
       </c>
+      <c r="Y52">
+        <v>3.72</v>
+      </c>
+      <c r="Z52">
+        <v>45.66</v>
+      </c>
+      <c r="AA52">
+        <v>8.869999999999999</v>
+      </c>
       <c r="AD52" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -5307,22 +6222,25 @@
       <c r="AH52">
         <v>-0.6302808523178101</v>
       </c>
-      <c r="AI52" t="s">
-        <v>196</v>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:36">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>301018</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53">
         <v>10.55</v>
@@ -5340,7 +6258,7 @@
         <v>160062.58</v>
       </c>
       <c r="J53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5381,8 +6299,23 @@
       <c r="X53">
         <v>-0.17</v>
       </c>
+      <c r="Y53">
+        <v>14.49</v>
+      </c>
+      <c r="Z53">
+        <v>74.72</v>
+      </c>
+      <c r="AA53">
+        <v>16.55</v>
+      </c>
       <c r="AD53" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -5390,22 +6323,25 @@
       <c r="AH53">
         <v>-0.4995348751544952</v>
       </c>
-      <c r="AI53" t="s">
-        <v>196</v>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:36">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>301021</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54">
         <v>7.37</v>
@@ -5423,7 +6359,7 @@
         <v>68957.35000000001</v>
       </c>
       <c r="J54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5444,7 +6380,7 @@
         <v>301021</v>
       </c>
       <c r="U54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V54">
         <v>-45456368</v>
@@ -5455,8 +6391,23 @@
       <c r="X54">
         <v>-0.84</v>
       </c>
+      <c r="Y54">
+        <v>2.41</v>
+      </c>
+      <c r="Z54">
+        <v>38.69</v>
+      </c>
+      <c r="AA54">
+        <v>4.57</v>
+      </c>
       <c r="AD54" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -5464,22 +6415,25 @@
       <c r="AH54">
         <v>4.955667972564697</v>
       </c>
-      <c r="AI54" t="s">
-        <v>196</v>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:36">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>301022</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E55">
         <v>11.13</v>
@@ -5497,7 +6451,7 @@
         <v>53395.22</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5538,8 +6492,23 @@
       <c r="X55">
         <v>0.78</v>
       </c>
+      <c r="Y55">
+        <v>-1.88</v>
+      </c>
+      <c r="Z55">
+        <v>47</v>
+      </c>
+      <c r="AA55">
+        <v>1.47</v>
+      </c>
       <c r="AD55" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -5547,22 +6516,25 @@
       <c r="AH55">
         <v>-6.197532653808594</v>
       </c>
-      <c r="AI55" t="s">
-        <v>196</v>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:36">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>301038</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56">
         <v>-1.06</v>
@@ -5580,7 +6552,7 @@
         <v>82965.97</v>
       </c>
       <c r="J56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K56">
         <v>14</v>
@@ -5621,8 +6593,23 @@
       <c r="X56">
         <v>-0.23</v>
       </c>
+      <c r="Y56">
+        <v>-0.28</v>
+      </c>
+      <c r="Z56">
+        <v>37.78</v>
+      </c>
+      <c r="AA56">
+        <v>4.22</v>
+      </c>
       <c r="AD56" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -5630,22 +6617,25 @@
       <c r="AH56">
         <v>1.753288388252258</v>
       </c>
-      <c r="AI56" t="s">
-        <v>196</v>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:36">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>301067</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57">
         <v>6.13</v>
@@ -5663,7 +6653,7 @@
         <v>50706.81</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5704,8 +6694,23 @@
       <c r="X57">
         <v>1.36</v>
       </c>
+      <c r="Y57">
+        <v>-0.79</v>
+      </c>
+      <c r="Z57">
+        <v>39.87</v>
+      </c>
+      <c r="AA57">
+        <v>1.97</v>
+      </c>
       <c r="AD57" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -5713,22 +6718,25 @@
       <c r="AH57">
         <v>4.211355209350586</v>
       </c>
-      <c r="AI57" t="s">
-        <v>196</v>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:36">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>301069</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58">
         <v>8.18</v>
@@ -5746,7 +6754,7 @@
         <v>115326.94</v>
       </c>
       <c r="J58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -5787,8 +6795,23 @@
       <c r="X58">
         <v>0.47</v>
       </c>
+      <c r="Y58">
+        <v>6.27</v>
+      </c>
+      <c r="Z58">
+        <v>26.58</v>
+      </c>
+      <c r="AA58">
+        <v>10.38</v>
+      </c>
       <c r="AD58" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -5796,22 +6819,25 @@
       <c r="AH58">
         <v>4.84492826461792</v>
       </c>
-      <c r="AI58" t="s">
-        <v>196</v>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:36">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>301076</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59">
         <v>10.16</v>
@@ -5829,7 +6855,7 @@
         <v>196481.84</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K59">
         <v>8</v>
@@ -5870,8 +6896,23 @@
       <c r="X59">
         <v>0.33</v>
       </c>
+      <c r="Y59">
+        <v>10.1</v>
+      </c>
+      <c r="Z59">
+        <v>63.49</v>
+      </c>
+      <c r="AA59">
+        <v>11.31</v>
+      </c>
       <c r="AD59" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -5879,22 +6920,25 @@
       <c r="AH59">
         <v>1.712387561798096</v>
       </c>
-      <c r="AI59" t="s">
-        <v>196</v>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:36">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>301095</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60">
         <v>-0.06</v>
@@ -5912,7 +6956,7 @@
         <v>114417.09</v>
       </c>
       <c r="J60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K60">
         <v>13</v>
@@ -5953,8 +6997,23 @@
       <c r="X60">
         <v>-0.1</v>
       </c>
+      <c r="Y60">
+        <v>13.86</v>
+      </c>
+      <c r="Z60">
+        <v>97.2</v>
+      </c>
+      <c r="AA60">
+        <v>16.64</v>
+      </c>
       <c r="AD60" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -5962,22 +7021,25 @@
       <c r="AH60">
         <v>3.145756244659424</v>
       </c>
-      <c r="AI60" t="s">
-        <v>196</v>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:36">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>301117</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E61">
         <v>-3.99</v>
@@ -5995,7 +7057,7 @@
         <v>130813.13</v>
       </c>
       <c r="J61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K61">
         <v>8</v>
@@ -6036,8 +7098,23 @@
       <c r="X61">
         <v>-5.47</v>
       </c>
+      <c r="Y61">
+        <v>-7.7</v>
+      </c>
+      <c r="Z61">
+        <v>38.85</v>
+      </c>
+      <c r="AA61">
+        <v>-5.01</v>
+      </c>
       <c r="AD61" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -6045,22 +7122,25 @@
       <c r="AH61">
         <v>7.01941967010498</v>
       </c>
-      <c r="AI61" t="s">
-        <v>196</v>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:36">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>301120</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62">
         <v>2.16</v>
@@ -6078,7 +7158,7 @@
         <v>65529.72</v>
       </c>
       <c r="J62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -6119,8 +7199,23 @@
       <c r="X62">
         <v>0.61</v>
       </c>
+      <c r="Y62">
+        <v>3.51</v>
+      </c>
+      <c r="Z62">
+        <v>15.8</v>
+      </c>
+      <c r="AA62">
+        <v>4.5</v>
+      </c>
       <c r="AD62" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -6128,22 +7223,25 @@
       <c r="AH62">
         <v>-5.609062671661377</v>
       </c>
-      <c r="AI62" t="s">
-        <v>196</v>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:36">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>301123</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E63">
         <v>20.01</v>
@@ -6161,7 +7259,7 @@
         <v>102545.57</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K63">
         <v>9</v>
@@ -6202,8 +7300,23 @@
       <c r="X63">
         <v>1.57</v>
       </c>
+      <c r="Y63">
+        <v>19.99</v>
+      </c>
+      <c r="Z63">
+        <v>47.29</v>
+      </c>
+      <c r="AA63">
+        <v>19.99</v>
+      </c>
       <c r="AD63" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
       </c>
       <c r="AG63">
         <v>1</v>
@@ -6211,22 +7324,25 @@
       <c r="AH63">
         <v>13.77171993255615</v>
       </c>
-      <c r="AI63" t="s">
-        <v>196</v>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:36">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>301128</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64">
         <v>12.74</v>
@@ -6244,7 +7360,7 @@
         <v>91774.46000000001</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6285,8 +7401,23 @@
       <c r="X64">
         <v>0.52</v>
       </c>
+      <c r="Y64">
+        <v>20</v>
+      </c>
+      <c r="Z64">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>20</v>
+      </c>
       <c r="AD64" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -6294,22 +7425,25 @@
       <c r="AH64">
         <v>7.617316722869873</v>
       </c>
-      <c r="AI64" t="s">
-        <v>196</v>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:36">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C65">
         <v>301132</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65">
         <v>8.51</v>
@@ -6327,7 +7461,7 @@
         <v>71056.19</v>
       </c>
       <c r="J65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -6368,8 +7502,23 @@
       <c r="X65">
         <v>-0.4</v>
       </c>
+      <c r="Y65">
+        <v>0.8</v>
+      </c>
+      <c r="Z65">
+        <v>43.58</v>
+      </c>
+      <c r="AA65">
+        <v>2.3</v>
+      </c>
       <c r="AD65" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -6377,22 +7526,25 @@
       <c r="AH65">
         <v>4.575844287872314</v>
       </c>
-      <c r="AI65" t="s">
-        <v>196</v>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:36">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>301150</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66">
         <v>2.38</v>
@@ -6410,7 +7562,7 @@
         <v>50804.9</v>
       </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6451,8 +7603,23 @@
       <c r="X66">
         <v>0.74</v>
       </c>
+      <c r="Y66">
+        <v>-2.14</v>
+      </c>
+      <c r="Z66">
+        <v>32.27</v>
+      </c>
+      <c r="AA66">
+        <v>1.51</v>
+      </c>
       <c r="AD66" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -6460,22 +7627,25 @@
       <c r="AH66">
         <v>1.776520371437073</v>
       </c>
-      <c r="AI66" t="s">
-        <v>196</v>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:36">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>301161</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67">
         <v>2.84</v>
@@ -6493,7 +7663,7 @@
         <v>34746.84</v>
       </c>
       <c r="J67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -6534,8 +7704,23 @@
       <c r="X67">
         <v>-0.06</v>
       </c>
+      <c r="Y67">
+        <v>17.3</v>
+      </c>
+      <c r="Z67">
+        <v>45.39</v>
+      </c>
+      <c r="AA67">
+        <v>17.35</v>
+      </c>
       <c r="AD67" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -6543,22 +7728,25 @@
       <c r="AH67">
         <v>0.5571383833885193</v>
       </c>
-      <c r="AI67" t="s">
-        <v>196</v>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:36">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>301181</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E68">
         <v>5.1</v>
@@ -6576,7 +7764,7 @@
         <v>52952.01</v>
       </c>
       <c r="J68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6617,8 +7805,23 @@
       <c r="X68">
         <v>2.85</v>
       </c>
+      <c r="Y68">
+        <v>2.99</v>
+      </c>
+      <c r="Z68">
+        <v>35.89</v>
+      </c>
+      <c r="AA68">
+        <v>6.28</v>
+      </c>
       <c r="AD68" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -6626,22 +7829,25 @@
       <c r="AH68">
         <v>1.377734661102295</v>
       </c>
-      <c r="AI68" t="s">
-        <v>196</v>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:36">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>301196</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69">
         <v>8.34</v>
@@ -6659,7 +7865,7 @@
         <v>100673.73</v>
       </c>
       <c r="J69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6700,8 +7906,23 @@
       <c r="X69">
         <v>0.54</v>
       </c>
+      <c r="Y69">
+        <v>-4.86</v>
+      </c>
+      <c r="Z69">
+        <v>106.23</v>
+      </c>
+      <c r="AA69">
+        <v>-0.15</v>
+      </c>
       <c r="AD69" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -6709,22 +7930,25 @@
       <c r="AH69">
         <v>0.5254201889038086</v>
       </c>
-      <c r="AI69" t="s">
-        <v>196</v>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:36">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>301200</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70">
         <v>2.63</v>
@@ -6742,7 +7966,7 @@
         <v>66350.66</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K70">
         <v>17</v>
@@ -6783,8 +8007,23 @@
       <c r="X70">
         <v>-0.17</v>
       </c>
+      <c r="Y70">
+        <v>-3.52</v>
+      </c>
+      <c r="Z70">
+        <v>94.78</v>
+      </c>
+      <c r="AA70">
+        <v>2.06</v>
+      </c>
       <c r="AD70" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -6792,22 +8031,25 @@
       <c r="AH70">
         <v>2.649025678634644</v>
       </c>
-      <c r="AI70" t="s">
-        <v>196</v>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:36">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71">
         <v>301217</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>14.49</v>
@@ -6825,7 +8067,7 @@
         <v>280124.72</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K71">
         <v>30</v>
@@ -6866,8 +8108,23 @@
       <c r="X71">
         <v>0.08</v>
       </c>
+      <c r="Y71">
+        <v>3.86</v>
+      </c>
+      <c r="Z71">
+        <v>34.8</v>
+      </c>
+      <c r="AA71">
+        <v>8.24</v>
+      </c>
       <c r="AD71" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
       </c>
       <c r="AG71">
         <v>1</v>
@@ -6875,22 +8132,25 @@
       <c r="AH71">
         <v>8.960230827331543</v>
       </c>
-      <c r="AI71" t="s">
-        <v>196</v>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:36">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>301251</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72">
         <v>7.83</v>
@@ -6908,7 +8168,7 @@
         <v>114775.68</v>
       </c>
       <c r="J72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K72">
         <v>8</v>
@@ -6949,8 +8209,23 @@
       <c r="X72">
         <v>1.31</v>
       </c>
+      <c r="Y72">
+        <v>-0.3</v>
+      </c>
+      <c r="Z72">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>4.22</v>
+      </c>
       <c r="AD72" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -6958,22 +8233,25 @@
       <c r="AH72">
         <v>2.213085889816284</v>
       </c>
-      <c r="AI72" t="s">
-        <v>196</v>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:36">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>301316</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E73">
         <v>0.02</v>
@@ -6991,7 +8269,7 @@
         <v>111063.86</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7032,8 +8310,23 @@
       <c r="X73">
         <v>-0.31</v>
       </c>
+      <c r="Y73">
+        <v>-2.36</v>
+      </c>
+      <c r="Z73">
+        <v>53.26</v>
+      </c>
+      <c r="AA73">
+        <v>0.72</v>
+      </c>
       <c r="AD73" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -7041,22 +8334,25 @@
       <c r="AH73">
         <v>-14.73152923583984</v>
       </c>
-      <c r="AI73" t="s">
-        <v>196</v>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:36">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>301323</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E74">
         <v>8.220000000000001</v>
@@ -7074,7 +8370,7 @@
         <v>51148.58</v>
       </c>
       <c r="J74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7115,8 +8411,23 @@
       <c r="X74">
         <v>-0.79</v>
       </c>
+      <c r="Y74">
+        <v>-0.26</v>
+      </c>
+      <c r="Z74">
+        <v>62.6</v>
+      </c>
+      <c r="AA74">
+        <v>2.24</v>
+      </c>
       <c r="AD74" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
       </c>
       <c r="AG74">
         <v>0</v>
@@ -7124,22 +8435,25 @@
       <c r="AH74">
         <v>0.8839316368103027</v>
       </c>
-      <c r="AI74" t="s">
-        <v>196</v>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:36">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>301326</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E75">
         <v>10.46</v>
@@ -7157,7 +8471,7 @@
         <v>45060.9</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K75">
         <v>6</v>
@@ -7198,8 +8512,23 @@
       <c r="X75">
         <v>1.64</v>
       </c>
+      <c r="Y75">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>117.08</v>
+      </c>
+      <c r="AA75">
+        <v>14.99</v>
+      </c>
       <c r="AD75" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -7207,22 +8536,25 @@
       <c r="AH75">
         <v>0.7411359548568726</v>
       </c>
-      <c r="AI75" t="s">
-        <v>196</v>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:36">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C76">
         <v>301357</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -7240,7 +8572,7 @@
         <v>109640.54</v>
       </c>
       <c r="J76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K76">
         <v>14</v>
@@ -7281,8 +8613,23 @@
       <c r="X76">
         <v>-0.66</v>
       </c>
+      <c r="Y76">
+        <v>15.02</v>
+      </c>
+      <c r="Z76">
+        <v>175.31</v>
+      </c>
+      <c r="AA76">
+        <v>18</v>
+      </c>
       <c r="AD76" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
       </c>
       <c r="AG76">
         <v>0</v>
@@ -7290,22 +8637,25 @@
       <c r="AH76">
         <v>0.07849196344614029</v>
       </c>
-      <c r="AI76" t="s">
-        <v>196</v>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:36">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C77">
         <v>301377</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77">
         <v>6.4</v>
@@ -7323,7 +8673,7 @@
         <v>39935.71</v>
       </c>
       <c r="J77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -7364,8 +8714,23 @@
       <c r="X77">
         <v>-0.04</v>
       </c>
+      <c r="Y77">
+        <v>0.92</v>
+      </c>
+      <c r="Z77">
+        <v>63.9</v>
+      </c>
+      <c r="AA77">
+        <v>1.88</v>
+      </c>
       <c r="AD77" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
       </c>
       <c r="AG77">
         <v>0</v>
@@ -7373,22 +8738,25 @@
       <c r="AH77">
         <v>2.751090288162231</v>
       </c>
-      <c r="AI77" t="s">
-        <v>196</v>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:36">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C78">
         <v>301389</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78">
         <v>7.66</v>
@@ -7406,7 +8774,7 @@
         <v>131963.94</v>
       </c>
       <c r="J78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K78">
         <v>29</v>
@@ -7447,8 +8815,23 @@
       <c r="X78">
         <v>-0.96</v>
       </c>
+      <c r="Y78">
+        <v>-1.44</v>
+      </c>
+      <c r="Z78">
+        <v>54.88</v>
+      </c>
+      <c r="AA78">
+        <v>3.82</v>
+      </c>
       <c r="AD78" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
       </c>
       <c r="AG78">
         <v>0</v>
@@ -7456,22 +8839,25 @@
       <c r="AH78">
         <v>93.09746551513672</v>
       </c>
-      <c r="AI78" t="s">
-        <v>196</v>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:36">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>301397</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E79">
         <v>15.73</v>
@@ -7489,7 +8875,7 @@
         <v>94194.27</v>
       </c>
       <c r="J79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K79">
         <v>7</v>
@@ -7530,8 +8916,23 @@
       <c r="X79">
         <v>-1.12</v>
       </c>
+      <c r="Y79">
+        <v>5.59</v>
+      </c>
+      <c r="Z79">
+        <v>50.68</v>
+      </c>
+      <c r="AA79">
+        <v>8.99</v>
+      </c>
       <c r="AD79" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
       </c>
       <c r="AG79">
         <v>0</v>
@@ -7539,22 +8940,25 @@
       <c r="AH79">
         <v>9.189607620239258</v>
       </c>
-      <c r="AI79" t="s">
-        <v>196</v>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:36">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C80">
         <v>301398</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80">
         <v>8.720000000000001</v>
@@ -7572,7 +8976,7 @@
         <v>52732.64</v>
       </c>
       <c r="J80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7613,8 +9017,23 @@
       <c r="X80">
         <v>1.35</v>
       </c>
+      <c r="Y80">
+        <v>7.73</v>
+      </c>
+      <c r="Z80">
+        <v>57.36</v>
+      </c>
+      <c r="AA80">
+        <v>17.04</v>
+      </c>
       <c r="AD80" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
       </c>
       <c r="AG80">
         <v>0</v>
@@ -7622,22 +9041,25 @@
       <c r="AH80">
         <v>2.848475933074951</v>
       </c>
-      <c r="AI80" t="s">
-        <v>196</v>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:36">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81">
         <v>301486</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81">
         <v>2.01</v>
@@ -7655,7 +9077,7 @@
         <v>105431.67</v>
       </c>
       <c r="J81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7696,8 +9118,23 @@
       <c r="X81">
         <v>-0.58</v>
       </c>
+      <c r="Y81">
+        <v>6.2</v>
+      </c>
+      <c r="Z81">
+        <v>96.93000000000001</v>
+      </c>
+      <c r="AA81">
+        <v>8.470000000000001</v>
+      </c>
       <c r="AD81" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>1</v>
       </c>
       <c r="AG81">
         <v>0</v>
@@ -7705,22 +9142,25 @@
       <c r="AH81">
         <v>7.863128662109375</v>
       </c>
-      <c r="AI81" t="s">
-        <v>196</v>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:36">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82">
         <v>301489</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82">
         <v>6.76</v>
@@ -7738,7 +9178,7 @@
         <v>135840.31</v>
       </c>
       <c r="J82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K82">
         <v>12</v>
@@ -7779,8 +9219,23 @@
       <c r="X82">
         <v>0.76</v>
       </c>
+      <c r="Y82">
+        <v>3.75</v>
+      </c>
+      <c r="Z82">
+        <v>174.2</v>
+      </c>
+      <c r="AA82">
+        <v>6</v>
+      </c>
       <c r="AD82" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
       </c>
       <c r="AG82">
         <v>0</v>
@@ -7788,22 +9243,25 @@
       <c r="AH82">
         <v>3.005508422851562</v>
       </c>
-      <c r="AI82" t="s">
-        <v>196</v>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:36">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C83">
         <v>301511</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83">
         <v>9.25</v>
@@ -7821,7 +9279,7 @@
         <v>241277.62</v>
       </c>
       <c r="J83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K83">
         <v>39</v>
@@ -7862,8 +9320,23 @@
       <c r="X83">
         <v>0.64</v>
       </c>
+      <c r="Y83">
+        <v>-2.31</v>
+      </c>
+      <c r="Z83">
+        <v>41.3</v>
+      </c>
+      <c r="AA83">
+        <v>1.35</v>
+      </c>
       <c r="AD83" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -7871,22 +9344,25 @@
       <c r="AH83">
         <v>0.7639287710189819</v>
       </c>
-      <c r="AI83" t="s">
-        <v>196</v>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:36">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C84">
         <v>301526</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E84">
         <v>19.92</v>
@@ -7904,7 +9380,7 @@
         <v>161424.46</v>
       </c>
       <c r="J84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K84">
         <v>7</v>
@@ -7945,8 +9421,23 @@
       <c r="X84">
         <v>3.68</v>
       </c>
+      <c r="Y84">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="Z84">
+        <v>7.5</v>
+      </c>
+      <c r="AA84">
+        <v>17.55</v>
+      </c>
       <c r="AD84" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
       </c>
       <c r="AG84">
         <v>1</v>
@@ -7954,22 +9445,25 @@
       <c r="AH84">
         <v>6.912473678588867</v>
       </c>
-      <c r="AI84" t="s">
-        <v>197</v>
+      <c r="AI84">
+        <v>1</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:36">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85">
         <v>688039</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E85">
         <v>8.300000000000001</v>
@@ -7987,7 +9481,7 @@
         <v>48993.66</v>
       </c>
       <c r="J85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8028,8 +9522,23 @@
       <c r="X85">
         <v>0.59</v>
       </c>
+      <c r="Y85">
+        <v>-1.15</v>
+      </c>
+      <c r="Z85">
+        <v>53.36</v>
+      </c>
+      <c r="AA85">
+        <v>0.47</v>
+      </c>
       <c r="AD85" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
       </c>
       <c r="AG85">
         <v>0</v>
@@ -8037,22 +9546,25 @@
       <c r="AH85">
         <v>1.688124418258667</v>
       </c>
-      <c r="AI85" t="s">
-        <v>196</v>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:36">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C86">
         <v>688108</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86">
         <v>13.72</v>
@@ -8070,7 +9582,7 @@
         <v>233086.57</v>
       </c>
       <c r="J86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K86">
         <v>5</v>
@@ -8111,8 +9623,23 @@
       <c r="X86">
         <v>0.5600000000000001</v>
       </c>
+      <c r="Y86">
+        <v>19.99</v>
+      </c>
+      <c r="Z86">
+        <v>41.48</v>
+      </c>
+      <c r="AA86">
+        <v>19.99</v>
+      </c>
       <c r="AD86" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
       </c>
       <c r="AG86">
         <v>0</v>
@@ -8120,22 +9647,25 @@
       <c r="AH86">
         <v>-4.361174583435059</v>
       </c>
-      <c r="AI86" t="s">
-        <v>196</v>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:36">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C87">
         <v>688110</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E87">
         <v>4.21</v>
@@ -8153,7 +9683,7 @@
         <v>513983.74</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K87">
         <v>14</v>
@@ -8194,8 +9724,23 @@
       <c r="X87">
         <v>-0.78</v>
       </c>
+      <c r="Y87">
+        <v>7.01</v>
+      </c>
+      <c r="Z87">
+        <v>106.2</v>
+      </c>
+      <c r="AA87">
+        <v>9.279999999999999</v>
+      </c>
       <c r="AD87" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>1</v>
       </c>
       <c r="AG87">
         <v>0</v>
@@ -8203,22 +9748,25 @@
       <c r="AH87">
         <v>-19.62861633300781</v>
       </c>
-      <c r="AI87" t="s">
-        <v>196</v>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:36">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C88">
         <v>688146</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88">
         <v>3.22</v>
@@ -8236,7 +9784,7 @@
         <v>105481.32</v>
       </c>
       <c r="J88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8277,8 +9825,23 @@
       <c r="X88">
         <v>-0.93</v>
       </c>
+      <c r="Y88">
+        <v>-3.58</v>
+      </c>
+      <c r="Z88">
+        <v>41.8</v>
+      </c>
+      <c r="AA88">
+        <v>-0.33</v>
+      </c>
       <c r="AD88" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
       </c>
       <c r="AG88">
         <v>0</v>
@@ -8286,22 +9849,25 @@
       <c r="AH88">
         <v>0.9803829193115234</v>
       </c>
-      <c r="AI88" t="s">
-        <v>196</v>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:36">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C89">
         <v>688199</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E89">
         <v>19.98</v>
@@ -8319,7 +9885,7 @@
         <v>86500.64</v>
       </c>
       <c r="J89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -8360,8 +9926,23 @@
       <c r="X89">
         <v>1.42</v>
       </c>
+      <c r="Y89">
+        <v>-1.86</v>
+      </c>
+      <c r="Z89">
+        <v>30.88</v>
+      </c>
+      <c r="AA89">
+        <v>0.85</v>
+      </c>
       <c r="AD89" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
       </c>
       <c r="AG89">
         <v>0</v>
@@ -8369,22 +9950,25 @@
       <c r="AH89">
         <v>6.822441101074219</v>
       </c>
-      <c r="AI89" t="s">
-        <v>196</v>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:36">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C90">
         <v>688202</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E90">
         <v>2.31</v>
@@ -8402,7 +9986,7 @@
         <v>55999.11</v>
       </c>
       <c r="J90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K90">
         <v>3</v>
@@ -8443,8 +10027,23 @@
       <c r="X90">
         <v>-0.13</v>
       </c>
+      <c r="Y90">
+        <v>1.55</v>
+      </c>
+      <c r="Z90">
+        <v>66.86</v>
+      </c>
+      <c r="AA90">
+        <v>1.8</v>
+      </c>
       <c r="AD90" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
       </c>
       <c r="AG90">
         <v>0</v>
@@ -8452,22 +10051,25 @@
       <c r="AH90">
         <v>3.451568126678467</v>
       </c>
-      <c r="AI90" t="s">
-        <v>196</v>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:36">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91">
         <v>688270</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E91">
         <v>2.99</v>
@@ -8485,7 +10087,7 @@
         <v>163391.05</v>
       </c>
       <c r="J91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K91">
         <v>3</v>
@@ -8526,8 +10128,23 @@
       <c r="X91">
         <v>-0.29</v>
       </c>
+      <c r="Y91">
+        <v>2.92</v>
+      </c>
+      <c r="Z91">
+        <v>70.66</v>
+      </c>
+      <c r="AA91">
+        <v>4.74</v>
+      </c>
       <c r="AD91" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
       </c>
       <c r="AG91">
         <v>0</v>
@@ -8535,22 +10152,25 @@
       <c r="AH91">
         <v>-0.1493273973464966</v>
       </c>
-      <c r="AI91" t="s">
-        <v>196</v>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:36">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C92">
         <v>688273</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E92">
         <v>-7.26</v>
@@ -8568,7 +10188,7 @@
         <v>45701.2</v>
       </c>
       <c r="J92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8609,8 +10229,23 @@
       <c r="X92">
         <v>-2.13</v>
       </c>
+      <c r="Y92">
+        <v>-1.27</v>
+      </c>
+      <c r="Z92">
+        <v>48</v>
+      </c>
+      <c r="AA92">
+        <v>0.23</v>
+      </c>
       <c r="AD92" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
       </c>
       <c r="AG92">
         <v>0</v>
@@ -8618,22 +10253,25 @@
       <c r="AH92">
         <v>-2.940754413604736</v>
       </c>
-      <c r="AI92" t="s">
-        <v>196</v>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:36">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C93">
         <v>688291</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93">
         <v>3.57</v>
@@ -8651,7 +10289,7 @@
         <v>30859.4</v>
       </c>
       <c r="J93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -8692,8 +10330,23 @@
       <c r="X93">
         <v>0.04</v>
       </c>
+      <c r="Y93">
+        <v>10.19</v>
+      </c>
+      <c r="Z93">
+        <v>43.88</v>
+      </c>
+      <c r="AA93">
+        <v>17.33</v>
+      </c>
       <c r="AD93" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
       </c>
       <c r="AG93">
         <v>0</v>
@@ -8701,22 +10354,25 @@
       <c r="AH93">
         <v>0.4030697643756866</v>
       </c>
-      <c r="AI93" t="s">
-        <v>196</v>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:36">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C94">
         <v>688347</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94">
         <v>11.35</v>
@@ -8734,7 +10390,7 @@
         <v>252248.14</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -8775,8 +10431,23 @@
       <c r="X94">
         <v>0.2</v>
       </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>-100</v>
+      </c>
       <c r="AD94" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
       </c>
       <c r="AG94">
         <v>0</v>
@@ -8784,22 +10455,25 @@
       <c r="AH94">
         <v>1.578947186470032</v>
       </c>
-      <c r="AI94" t="s">
-        <v>196</v>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:36">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95">
         <v>688379</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E95">
         <v>15.36</v>
@@ -8817,7 +10491,7 @@
         <v>55600.35</v>
       </c>
       <c r="J95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -8858,8 +10532,23 @@
       <c r="X95">
         <v>-0.23</v>
       </c>
+      <c r="Y95">
+        <v>13.28</v>
+      </c>
+      <c r="Z95">
+        <v>71</v>
+      </c>
+      <c r="AA95">
+        <v>19.37</v>
+      </c>
       <c r="AD95" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
       </c>
       <c r="AG95">
         <v>0</v>
@@ -8867,22 +10556,25 @@
       <c r="AH95">
         <v>2.503303050994873</v>
       </c>
-      <c r="AI95" t="s">
-        <v>196</v>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:36">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96">
         <v>688401</v>
       </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96">
         <v>6.05</v>
@@ -8900,7 +10592,7 @@
         <v>45924.32</v>
       </c>
       <c r="J96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -8941,8 +10633,23 @@
       <c r="X96">
         <v>-0.1</v>
       </c>
+      <c r="Y96">
+        <v>0.49</v>
+      </c>
+      <c r="Z96">
+        <v>45.95</v>
+      </c>
+      <c r="AA96">
+        <v>1.57</v>
+      </c>
       <c r="AD96" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -8950,22 +10657,25 @@
       <c r="AH96">
         <v>5.974928379058838</v>
       </c>
-      <c r="AI96" t="s">
-        <v>196</v>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:36">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97">
         <v>688448</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -8983,7 +10693,7 @@
         <v>42414.69</v>
       </c>
       <c r="J97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -9024,8 +10734,23 @@
       <c r="X97">
         <v>1.56</v>
       </c>
+      <c r="Y97">
+        <v>15.97</v>
+      </c>
+      <c r="Z97">
+        <v>67.25</v>
+      </c>
+      <c r="AA97">
+        <v>20</v>
+      </c>
       <c r="AD97" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
       </c>
       <c r="AG97">
         <v>1</v>
@@ -9033,22 +10758,25 @@
       <c r="AH97">
         <v>12.7292652130127</v>
       </c>
-      <c r="AI97" t="s">
-        <v>197</v>
+      <c r="AI97">
+        <v>1</v>
+      </c>
+      <c r="AJ97">
+        <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:36">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C98">
         <v>688498</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E98">
         <v>0.57</v>
@@ -9066,7 +10794,7 @@
         <v>81100.28</v>
       </c>
       <c r="J98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -9107,8 +10835,23 @@
       <c r="X98">
         <v>-0.31</v>
       </c>
+      <c r="Y98">
+        <v>4.18</v>
+      </c>
+      <c r="Z98">
+        <v>292</v>
+      </c>
+      <c r="AA98">
+        <v>9.82</v>
+      </c>
       <c r="AD98" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>1</v>
       </c>
       <c r="AG98">
         <v>0</v>
@@ -9116,22 +10859,25 @@
       <c r="AH98">
         <v>-0.7324087023735046</v>
       </c>
-      <c r="AI98" t="s">
-        <v>196</v>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:36">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C99">
         <v>688499</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E99">
         <v>2.61</v>
@@ -9149,7 +10895,7 @@
         <v>54759.94</v>
       </c>
       <c r="J99" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K99">
         <v>44</v>
@@ -9190,8 +10936,23 @@
       <c r="X99">
         <v>-0.16</v>
       </c>
+      <c r="Y99">
+        <v>5.13</v>
+      </c>
+      <c r="Z99">
+        <v>63.4</v>
+      </c>
+      <c r="AA99">
+        <v>6.9</v>
+      </c>
       <c r="AD99" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
       </c>
       <c r="AG99">
         <v>0</v>
@@ -9199,22 +10960,25 @@
       <c r="AH99">
         <v>6.53535270690918</v>
       </c>
-      <c r="AI99" t="s">
-        <v>196</v>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:36">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C100">
         <v>688584</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E100">
         <v>9.75</v>
@@ -9232,7 +10996,7 @@
         <v>88155.14999999999</v>
       </c>
       <c r="J100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K100">
         <v>3</v>
@@ -9273,8 +11037,23 @@
       <c r="X100">
         <v>0.03</v>
       </c>
+      <c r="Y100">
+        <v>1.98</v>
+      </c>
+      <c r="Z100">
+        <v>27.56</v>
+      </c>
+      <c r="AA100">
+        <v>2.87</v>
+      </c>
       <c r="AD100" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
       </c>
       <c r="AG100">
         <v>1</v>
@@ -9282,22 +11061,25 @@
       <c r="AH100">
         <v>2.2442786693573</v>
       </c>
-      <c r="AI100" t="s">
-        <v>196</v>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:36">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101">
         <v>688591</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E101">
         <v>1.62</v>
@@ -9315,7 +11097,7 @@
         <v>71889.06</v>
       </c>
       <c r="J101" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K101">
         <v>3</v>
@@ -9356,8 +11138,23 @@
       <c r="X101">
         <v>0.5</v>
       </c>
+      <c r="Y101">
+        <v>1.97</v>
+      </c>
+      <c r="Z101">
+        <v>54.58</v>
+      </c>
+      <c r="AA101">
+        <v>2.5</v>
+      </c>
       <c r="AD101" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
       </c>
       <c r="AG101">
         <v>0</v>
@@ -9365,22 +11162,25 @@
       <c r="AH101">
         <v>2.250558853149414</v>
       </c>
-      <c r="AI101" t="s">
-        <v>196</v>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:36">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C102">
         <v>688603</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E102">
         <v>5.69</v>
@@ -9398,7 +11198,7 @@
         <v>54702.83</v>
       </c>
       <c r="J102" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K102">
         <v>3</v>
@@ -9439,8 +11239,23 @@
       <c r="X102">
         <v>0.59</v>
       </c>
+      <c r="Y102">
+        <v>20</v>
+      </c>
+      <c r="Z102">
+        <v>96.77</v>
+      </c>
+      <c r="AA102">
+        <v>20</v>
+      </c>
       <c r="AD102" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
       </c>
       <c r="AG102">
         <v>0</v>
@@ -9448,22 +11263,25 @@
       <c r="AH102">
         <v>3.769904136657715</v>
       </c>
-      <c r="AI102" t="s">
-        <v>196</v>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:36">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C103">
         <v>688668</v>
       </c>
       <c r="D103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E103">
         <v>0.36</v>
@@ -9481,7 +11299,7 @@
         <v>86085</v>
       </c>
       <c r="J103" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K103">
         <v>22</v>
@@ -9522,8 +11340,23 @@
       <c r="X103">
         <v>0.22</v>
       </c>
+      <c r="Y103">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="Z103">
+        <v>125.09</v>
+      </c>
+      <c r="AA103">
+        <v>13.72</v>
+      </c>
       <c r="AD103" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
       </c>
       <c r="AG103">
         <v>0</v>
@@ -9531,22 +11364,25 @@
       <c r="AH103">
         <v>5.813724994659424</v>
       </c>
-      <c r="AI103" t="s">
-        <v>196</v>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:36">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C104">
         <v>688716</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E104">
         <v>4.82</v>
@@ -9564,7 +11400,7 @@
         <v>91411.38</v>
       </c>
       <c r="J104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -9605,8 +11441,23 @@
       <c r="X104">
         <v>-0.78</v>
       </c>
+      <c r="Y104">
+        <v>13.46</v>
+      </c>
+      <c r="Z104">
+        <v>59.95</v>
+      </c>
+      <c r="AA104">
+        <v>19.76</v>
+      </c>
       <c r="AD104" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
       </c>
       <c r="AG104">
         <v>0</v>
@@ -9614,22 +11465,25 @@
       <c r="AH104">
         <v>6.618281841278076</v>
       </c>
-      <c r="AI104" t="s">
-        <v>196</v>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:36">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C105">
         <v>688733</v>
       </c>
       <c r="D105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E105">
         <v>17.54</v>
@@ -9647,7 +11501,7 @@
         <v>115448.26</v>
       </c>
       <c r="J105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9688,8 +11542,23 @@
       <c r="X105">
         <v>0.02</v>
       </c>
+      <c r="Y105">
+        <v>-3.85</v>
+      </c>
+      <c r="Z105">
+        <v>34.43</v>
+      </c>
+      <c r="AA105">
+        <v>5.29</v>
+      </c>
       <c r="AD105" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
       </c>
       <c r="AG105">
         <v>1</v>
@@ -9697,22 +11566,25 @@
       <c r="AH105">
         <v>16.17152976989746</v>
       </c>
-      <c r="AI105" t="s">
-        <v>196</v>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:36">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106">
         <v>688800</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E106">
         <v>9.890000000000001</v>
@@ -9730,7 +11602,7 @@
         <v>176146.6</v>
       </c>
       <c r="J106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K106">
         <v>9</v>
@@ -9771,8 +11643,23 @@
       <c r="X106">
         <v>0.01</v>
       </c>
+      <c r="Y106">
+        <v>0.04</v>
+      </c>
+      <c r="Z106">
+        <v>81.8</v>
+      </c>
+      <c r="AA106">
+        <v>5.14</v>
+      </c>
       <c r="AD106" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
       </c>
       <c r="AG106">
         <v>0</v>
@@ -9780,8 +11667,11 @@
       <c r="AH106">
         <v>6.946143627166748</v>
       </c>
-      <c r="AI106" t="s">
-        <v>196</v>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
